--- a/aykome-kazi-ruhsat/aykome-kazi-ruhsat-sayilari.xlsx
+++ b/aykome-kazi-ruhsat/aykome-kazi-ruhsat-sayilari.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>baslangic_tarihi</t>
+          <t>yil</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>bitis_tarihi</t>
+          <t>ay</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -455,1716 +451,2028 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>39539</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>39568</v>
+      <c r="A2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>241</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>39569</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>39599</v>
+      <c r="A3" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>519</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>39600</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>39629</v>
+      <c r="A4" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>638</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>39630</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>39660</v>
+      <c r="A5" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>685</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>39661</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>39691</v>
+      <c r="A6" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>39692</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>39721</v>
+      <c r="A7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>487</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>39722</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>39752</v>
+      <c r="A8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>505</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>39753</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>39782</v>
+      <c r="A9" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>222</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>39783</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>39813</v>
+      <c r="A10" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>39814</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>39844</v>
+      <c r="A11" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>285</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>39845</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>39872</v>
+      <c r="A12" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>411</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>39873</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>39903</v>
+      <c r="A13" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>361</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>39904</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>39933</v>
+      <c r="A14" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>842</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>39934</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>39964</v>
+      <c r="A15" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>39965</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>39994</v>
+      <c r="A16" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>602</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>39995</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>40025</v>
+      <c r="A17" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>531</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>40026</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>40056</v>
+      <c r="A18" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>558</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>40057</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>40086</v>
+      <c r="A19" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>40087</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>40117</v>
+      <c r="A20" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>476</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>40118</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>40147</v>
+      <c r="A21" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>263</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>40148</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>40178</v>
+      <c r="A22" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>40179</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>40209</v>
+      <c r="A23" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>141</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>40210</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>40237</v>
+      <c r="A24" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>145</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>40238</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>40268</v>
+      <c r="A25" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>595</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>40269</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>40298</v>
+      <c r="A26" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>522</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>40299</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>40329</v>
+      <c r="A27" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>608</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>40330</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>40359</v>
+      <c r="A28" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>559</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>40360</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>40390</v>
+      <c r="A29" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>403</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>40391</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>40421</v>
+      <c r="A30" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C30" t="n">
         <v>384</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>40422</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>40451</v>
+      <c r="A31" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>291</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>40452</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>40482</v>
+      <c r="A32" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C32" t="n">
         <v>318</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>40483</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>40512</v>
+      <c r="A33" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C33" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>40513</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>40543</v>
+      <c r="A34" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C34" t="n">
         <v>131</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>40544</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>40574</v>
+      <c r="A35" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C35" t="n">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>40575</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>40602</v>
+      <c r="A36" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C36" t="n">
         <v>178</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>40603</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>40633</v>
+      <c r="A37" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C37" t="n">
         <v>496</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>40634</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>40663</v>
+      <c r="A38" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C38" t="n">
         <v>508</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>40664</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>40694</v>
+      <c r="A39" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C39" t="n">
         <v>549</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>40695</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>40724</v>
+      <c r="A40" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C40" t="n">
         <v>509</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>40725</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>40755</v>
+      <c r="A41" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C41" t="n">
         <v>361</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40756</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>40786</v>
+      <c r="A42" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C42" t="n">
         <v>437</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>40787</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>40816</v>
+      <c r="A43" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C43" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>40817</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>40847</v>
+      <c r="A44" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C44" t="n">
         <v>443</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>40848</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>40877</v>
+      <c r="A45" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C45" t="n">
         <v>660</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>40878</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>40908</v>
+      <c r="A46" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C46" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>40909</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>40939</v>
+      <c r="A47" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C47" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>40940</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>40968</v>
+      <c r="A48" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C48" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>40969</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>40999</v>
+      <c r="A49" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C49" t="n">
         <v>214</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>41000</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>41029</v>
+      <c r="A50" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C50" t="n">
         <v>672</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>41030</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>41060</v>
+      <c r="A51" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C51" t="n">
         <v>591</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>41061</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>41090</v>
+      <c r="A52" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C52" t="n">
         <v>508</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>41091</v>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>41121</v>
+      <c r="A53" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C53" t="n">
         <v>428</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>41122</v>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>41152</v>
+      <c r="A54" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C54" t="n">
         <v>227</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>41153</v>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>41182</v>
+      <c r="A55" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C55" t="n">
         <v>433</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>41183</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>41213</v>
+      <c r="A56" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C56" t="n">
         <v>536</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>41214</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>41243</v>
+      <c r="A57" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C57" t="n">
         <v>437</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>41244</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>41274</v>
+      <c r="A58" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C58" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>41275</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>41305</v>
+      <c r="A59" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C59" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>41306</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>41333</v>
+      <c r="A60" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C60" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>41334</v>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>41364</v>
+      <c r="A61" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C61" t="n">
         <v>416</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>41365</v>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>41394</v>
+      <c r="A62" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C62" t="n">
         <v>502</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>41395</v>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>41425</v>
+      <c r="A63" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C63" t="n">
         <v>531</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>41426</v>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>41455</v>
+      <c r="A64" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C64" t="n">
         <v>532</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>41456</v>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>41486</v>
+      <c r="A65" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C65" t="n">
         <v>359</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>41487</v>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>41517</v>
+      <c r="A66" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C66" t="n">
         <v>229</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>41518</v>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>41547</v>
+      <c r="A67" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C67" t="n">
         <v>396</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>41548</v>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>41578</v>
+      <c r="A68" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C68" t="n">
         <v>272</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>41579</v>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>41608</v>
+      <c r="A69" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C69" t="n">
         <v>602</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>41609</v>
-      </c>
-      <c r="B70" s="2" t="n">
-        <v>41639</v>
+      <c r="A70" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C70" t="n">
         <v>283</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>41640</v>
-      </c>
-      <c r="B71" s="2" t="n">
-        <v>41670</v>
+      <c r="A71" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C71" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>41671</v>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>41698</v>
+      <c r="A72" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C72" t="n">
         <v>162</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>41699</v>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>41729</v>
+      <c r="A73" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C73" t="n">
         <v>361</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>41730</v>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>41759</v>
+      <c r="A74" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C74" t="n">
         <v>468</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>41760</v>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>41790</v>
+      <c r="A75" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C75" t="n">
         <v>566</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>41791</v>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>41820</v>
+      <c r="A76" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C76" t="n">
         <v>398</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>41821</v>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>41851</v>
+      <c r="A77" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C77" t="n">
         <v>251</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>41852</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>41882</v>
+      <c r="A78" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C78" t="n">
         <v>276</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>41883</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>41912</v>
+      <c r="A79" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C79" t="n">
         <v>355</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>41913</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>41943</v>
+      <c r="A80" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C80" t="n">
         <v>173</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>41944</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>41973</v>
+      <c r="A81" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C81" t="n">
         <v>509</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>41974</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>42004</v>
+      <c r="A82" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C82" t="n">
         <v>278</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>42035</v>
+      <c r="A83" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C83" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>42036</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>42063</v>
+      <c r="A84" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C84" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>42064</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>42094</v>
+      <c r="A85" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C85" t="n">
         <v>311</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>42095</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>42124</v>
+      <c r="A86" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C86" t="n">
         <v>692</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>42125</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>42155</v>
+      <c r="A87" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C87" t="n">
         <v>563</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>42156</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>42185</v>
+      <c r="A88" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C88" t="n">
         <v>452</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>42186</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>42216</v>
+      <c r="A89" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C89" t="n">
         <v>456</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>42217</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>42247</v>
+      <c r="A90" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C90" t="n">
         <v>435</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>42248</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>42277</v>
+      <c r="A91" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C91" t="n">
         <v>335</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>42278</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>42308</v>
+      <c r="A92" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C92" t="n">
         <v>519</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>42309</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>42338</v>
+      <c r="A93" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C93" t="n">
         <v>832</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>42339</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>42369</v>
+      <c r="A94" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C94" t="n">
         <v>141</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>42400</v>
+      <c r="A95" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>42401</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>42429</v>
+      <c r="A96" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C96" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>42430</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>42460</v>
+      <c r="A97" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C97" t="n">
         <v>528</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>42461</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>42490</v>
+      <c r="A98" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C98" t="n">
         <v>584</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>42491</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>42521</v>
+      <c r="A99" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C99" t="n">
         <v>680</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>42522</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>42551</v>
+      <c r="A100" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C100" t="n">
         <v>430</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>42552</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>42582</v>
+      <c r="A101" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C101" t="n">
         <v>359</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>42583</v>
-      </c>
-      <c r="B102" s="2" t="n">
-        <v>42613</v>
+      <c r="A102" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C102" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>42614</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>42643</v>
+      <c r="A103" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C103" t="n">
         <v>325</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>42644</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>42674</v>
+      <c r="A104" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C104" t="n">
         <v>491</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>42675</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>42704</v>
+      <c r="A105" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C105" t="n">
         <v>426</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>42705</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>42735</v>
+      <c r="A106" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C106" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>42766</v>
+      <c r="A107" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C107" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>42767</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>42794</v>
+      <c r="A108" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C108" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>42795</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>42825</v>
+      <c r="A109" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C109" t="n">
         <v>416</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>42826</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>42855</v>
+      <c r="A110" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C110" t="n">
         <v>705</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>42856</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>42886</v>
+      <c r="A111" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C111" t="n">
         <v>766</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>42887</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>42916</v>
+      <c r="A112" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C112" t="n">
         <v>689</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>42917</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>42947</v>
+      <c r="A113" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C113" t="n">
         <v>757</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>42948</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>42978</v>
+      <c r="A114" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C114" t="n">
         <v>705</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>42979</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>43008</v>
+      <c r="A115" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C115" t="n">
         <v>529</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>43009</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>43039</v>
+      <c r="A116" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C116" t="n">
         <v>775</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>43040</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>43069</v>
+      <c r="A117" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C117" t="n">
         <v>524</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>43070</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>43100</v>
+      <c r="A118" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C118" t="n">
         <v>153</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>43131</v>
+      <c r="A119" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C119" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>43132</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>43159</v>
+      <c r="A120" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C120" t="n">
         <v>219</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>43160</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>43190</v>
+      <c r="A121" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C121" t="n">
         <v>707</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>43191</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>43220</v>
+      <c r="A122" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C122" t="n">
         <v>838</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>43221</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>43251</v>
+      <c r="A123" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C123" t="n">
         <v>874</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>43252</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>43281</v>
+      <c r="A124" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C124" t="n">
         <v>670</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>43282</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>43312</v>
+      <c r="A125" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C125" t="n">
         <v>1147</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>43313</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>43343</v>
+      <c r="A126" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C126" t="n">
         <v>1175</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>43344</v>
-      </c>
-      <c r="B127" s="2" t="n">
-        <v>43373</v>
+      <c r="A127" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C127" t="n">
         <v>1473</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>43374</v>
-      </c>
-      <c r="B128" s="2" t="n">
-        <v>43404</v>
+      <c r="A128" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C128" t="n">
         <v>1309</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>43405</v>
-      </c>
-      <c r="B129" s="2" t="n">
-        <v>43434</v>
+      <c r="A129" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C129" t="n">
         <v>1017</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>43435</v>
-      </c>
-      <c r="B130" s="2" t="n">
-        <v>43465</v>
+      <c r="A130" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C130" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="B131" s="2" t="n">
-        <v>43496</v>
+      <c r="A131" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C131" t="n">
         <v>137</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>43497</v>
-      </c>
-      <c r="B132" s="2" t="n">
-        <v>43524</v>
+      <c r="A132" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C132" t="n">
         <v>182</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>43525</v>
-      </c>
-      <c r="B133" s="2" t="n">
-        <v>43555</v>
+      <c r="A133" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C133" t="n">
         <v>858</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>43556</v>
-      </c>
-      <c r="B134" s="2" t="n">
-        <v>43585</v>
+      <c r="A134" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C134" t="n">
         <v>2452</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>43586</v>
-      </c>
-      <c r="B135" s="2" t="n">
-        <v>43616</v>
+      <c r="A135" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C135" t="n">
         <v>2025</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="B136" s="2" t="n">
-        <v>43646</v>
+      <c r="A136" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C136" t="n">
         <v>1412</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>43647</v>
-      </c>
-      <c r="B137" s="2" t="n">
-        <v>43677</v>
+      <c r="A137" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C137" t="n">
         <v>2209</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>43678</v>
-      </c>
-      <c r="B138" s="2" t="n">
-        <v>43708</v>
+      <c r="A138" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C138" t="n">
         <v>1851</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>43709</v>
-      </c>
-      <c r="B139" s="2" t="n">
-        <v>43738</v>
+      <c r="A139" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C139" t="n">
         <v>1922</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>43739</v>
-      </c>
-      <c r="B140" s="2" t="n">
-        <v>43769</v>
+      <c r="A140" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C140" t="n">
         <v>1759</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>43770</v>
-      </c>
-      <c r="B141" s="2" t="n">
-        <v>43799</v>
+      <c r="A141" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C141" t="n">
         <v>1489</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>43800</v>
-      </c>
-      <c r="B142" s="2" t="n">
-        <v>43830</v>
+      <c r="A142" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C142" t="n">
         <v>449</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="B143" s="2" t="n">
-        <v>43861</v>
+      <c r="A143" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C143" t="n">
         <v>248</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>43862</v>
-      </c>
-      <c r="B144" s="2" t="n">
-        <v>43890</v>
+      <c r="A144" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C144" t="n">
         <v>317</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>43891</v>
-      </c>
-      <c r="B145" s="2" t="n">
-        <v>43921</v>
+      <c r="A145" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C145" t="n">
         <v>1049</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B146" s="2" t="n">
-        <v>43951</v>
+      <c r="A146" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C146" t="n">
         <v>1226</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
-        <v>43952</v>
-      </c>
-      <c r="B147" s="2" t="n">
-        <v>43982</v>
+      <c r="A147" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C147" t="n">
         <v>961</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
-        <v>43983</v>
-      </c>
-      <c r="B148" s="2" t="n">
-        <v>44012</v>
+      <c r="A148" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C148" t="n">
         <v>2329</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B149" s="2" t="n">
-        <v>44043</v>
+      <c r="A149" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C149" t="n">
         <v>2043</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
-        <v>44044</v>
-      </c>
-      <c r="B150" s="2" t="n">
-        <v>44074</v>
+      <c r="A150" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C150" t="n">
         <v>2303</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B151" s="2" t="n">
-        <v>44104</v>
+      <c r="A151" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C151" t="n">
         <v>2280</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
-        <v>44105</v>
-      </c>
-      <c r="B152" s="2" t="n">
-        <v>44135</v>
+      <c r="A152" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C152" t="n">
         <v>2917</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
-        <v>44136</v>
-      </c>
-      <c r="B153" s="2" t="n">
-        <v>44165</v>
+      <c r="A153" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C153" t="n">
         <v>2454</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B154" s="2" t="n">
-        <v>44196</v>
+      <c r="A154" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C154" t="n">
         <v>605</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="B155" s="2" t="n">
-        <v>44227</v>
+      <c r="A155" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C155" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
-        <v>44228</v>
-      </c>
-      <c r="B156" s="2" t="n">
-        <v>44255</v>
+      <c r="A156" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C156" t="n">
         <v>340</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
-        <v>44256</v>
-      </c>
-      <c r="B157" s="2" t="n">
-        <v>44286</v>
+      <c r="A157" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C157" t="n">
         <v>147</v>
